--- a/Data/template/Machote de CIISA.xlsx
+++ b/Data/template/Machote de CIISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walner.borbon\OneDrive - Grant Thornton CR\Documents\UiPath\CIISA-Bot\Data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8252947E-6411-446F-A254-E8327450AC5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF3C5B5-1989-41F9-8B6D-EA5DC313C691}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="14205" windowHeight="12750" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle ajustado" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5219,7 +5219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="TablaDinámica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -5320,7 +5320,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -5708,7 +5708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L765" workbookViewId="0">
       <selection activeCell="P784" sqref="N3:P784"/>
     </sheetView>
   </sheetViews>
@@ -28354,7 +28354,7 @@
         <v>11</v>
       </c>
       <c r="P784" s="7" t="str">
-        <f t="shared" ref="P784" si="67">IF(D784="ropa, zapateria y hogar","otros",IF(D784="otros","taxi",IF(D784="restaurantes","Alimentacion",IF(D784="hoteles","hospedaje",IF(D784="supermercados","Alimentacion",IF(D784="agencia de viajes","viajes exterior",IF(D784="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f>IF(D784="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D784="otros","taxi",IF(D784="restaurantes","Alimentacion",IF(D784="hoteles","hospedaje",IF(D784="supermercados","Alimentacion",IF(D784="agencia de viajes","viajes exterior",IF(D784="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q784" s="5">

--- a/Data/template/Machote de CIISA.xlsx
+++ b/Data/template/Machote de CIISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walner.borbon\OneDrive - Grant Thornton CR\Documents\UiPath\CIISA-Bot\Data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073DBED-BF2B-497E-95CF-876DEBADAEAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DF472-06CE-49B4-990B-AB5C0A3CF731}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle ajustado" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="17" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5219,7 +5219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="TablaDinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="TablaDinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -5320,7 +5320,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -5708,8 +5708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5826,7 +5826,7 @@
         <v>11</v>
       </c>
       <c r="P3" s="7" t="str">
-        <f>IF(D3="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D3="otros","taxi",IF(D3="restaurantes","Alimentacion",IF(D3="hoteles","hospedaje",IF(D3="supermercados","Alimentacion",IF(D3="agencia de viajes","viajes exterior",IF(D3="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f>IF(D3="ropa, zapateria y hogar","COMPRAS MENORES",IF(D3="otros","taxi",IF(D3="restaurantes","Alimentacion",IF(D3="hoteles","hospedaje",IF(D3="supermercados","Alimentacion",IF(D3="agencia de viajes","viajes exterior",IF(D3="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q3" s="5">
@@ -5864,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="str">
-        <f t="shared" ref="P4:P67" si="3">IF(D4="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D4="otros","taxi",IF(D4="restaurantes","Alimentacion",IF(D4="hoteles","hospedaje",IF(D4="supermercados","Alimentacion",IF(D4="agencia de viajes","viajes exterior",IF(D4="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P4:P67" si="3">IF(D4="ropa, zapateria y hogar","COMPRAS MENORES",IF(D4="otros","taxi",IF(D4="restaurantes","Alimentacion",IF(D4="hoteles","hospedaje",IF(D4="supermercados","Alimentacion",IF(D4="agencia de viajes","viajes exterior",IF(D4="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q4" s="5">
@@ -8296,7 +8296,7 @@
         <v>11</v>
       </c>
       <c r="P68" s="7" t="str">
-        <f t="shared" ref="P68:P131" si="10">IF(D68="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D68="otros","taxi",IF(D68="restaurantes","Alimentacion",IF(D68="hoteles","hospedaje",IF(D68="supermercados","Alimentacion",IF(D68="agencia de viajes","viajes exterior",IF(D68="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P68:P131" si="10">IF(D68="ropa, zapateria y hogar","COMPRAS MENORES",IF(D68="otros","taxi",IF(D68="restaurantes","Alimentacion",IF(D68="hoteles","hospedaje",IF(D68="supermercados","Alimentacion",IF(D68="agencia de viajes","viajes exterior",IF(D68="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q68" s="5">
@@ -10728,7 +10728,7 @@
         <v>11</v>
       </c>
       <c r="P132" s="7" t="str">
-        <f t="shared" ref="P132:P195" si="15">IF(D132="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D132="otros","taxi",IF(D132="restaurantes","Alimentacion",IF(D132="hoteles","hospedaje",IF(D132="supermercados","Alimentacion",IF(D132="agencia de viajes","viajes exterior",IF(D132="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P132:P195" si="15">IF(D132="ropa, zapateria y hogar","COMPRAS MENORES",IF(D132="otros","taxi",IF(D132="restaurantes","Alimentacion",IF(D132="hoteles","hospedaje",IF(D132="supermercados","Alimentacion",IF(D132="agencia de viajes","viajes exterior",IF(D132="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q132" s="5">
@@ -13160,7 +13160,7 @@
         <v>11</v>
       </c>
       <c r="P196" s="7" t="str">
-        <f t="shared" ref="P196:P259" si="20">IF(D196="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D196="otros","taxi",IF(D196="restaurantes","Alimentacion",IF(D196="hoteles","hospedaje",IF(D196="supermercados","Alimentacion",IF(D196="agencia de viajes","viajes exterior",IF(D196="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P196:P259" si="20">IF(D196="ropa, zapateria y hogar","COMPRAS MENORES",IF(D196="otros","taxi",IF(D196="restaurantes","Alimentacion",IF(D196="hoteles","hospedaje",IF(D196="supermercados","Alimentacion",IF(D196="agencia de viajes","viajes exterior",IF(D196="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q196" s="5">
@@ -15254,7 +15254,7 @@
         <v>11</v>
       </c>
       <c r="P260" s="7" t="str">
-        <f t="shared" ref="P260:P323" si="25">IF(D260="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D260="otros","taxi",IF(D260="restaurantes","Alimentacion",IF(D260="hoteles","hospedaje",IF(D260="supermercados","Alimentacion",IF(D260="agencia de viajes","viajes exterior",IF(D260="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P260:P323" si="25">IF(D260="ropa, zapateria y hogar","COMPRAS MENORES",IF(D260="otros","taxi",IF(D260="restaurantes","Alimentacion",IF(D260="hoteles","hospedaje",IF(D260="supermercados","Alimentacion",IF(D260="agencia de viajes","viajes exterior",IF(D260="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q260" s="5">
@@ -16854,7 +16854,7 @@
         <v>11</v>
       </c>
       <c r="P324" s="7" t="str">
-        <f t="shared" ref="P324:P387" si="30">IF(D324="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D324="otros","taxi",IF(D324="restaurantes","Alimentacion",IF(D324="hoteles","hospedaje",IF(D324="supermercados","Alimentacion",IF(D324="agencia de viajes","viajes exterior",IF(D324="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P324:P387" si="30">IF(D324="ropa, zapateria y hogar","COMPRAS MENORES",IF(D324="otros","taxi",IF(D324="restaurantes","Alimentacion",IF(D324="hoteles","hospedaje",IF(D324="supermercados","Alimentacion",IF(D324="agencia de viajes","viajes exterior",IF(D324="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q324" s="5">
@@ -18454,7 +18454,7 @@
         <v>11</v>
       </c>
       <c r="P388" s="7" t="str">
-        <f t="shared" ref="P388:P451" si="35">IF(D388="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D388="otros","taxi",IF(D388="restaurantes","Alimentacion",IF(D388="hoteles","hospedaje",IF(D388="supermercados","Alimentacion",IF(D388="agencia de viajes","viajes exterior",IF(D388="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P388:P451" si="35">IF(D388="ropa, zapateria y hogar","COMPRAS MENORES",IF(D388="otros","taxi",IF(D388="restaurantes","Alimentacion",IF(D388="hoteles","hospedaje",IF(D388="supermercados","Alimentacion",IF(D388="agencia de viajes","viajes exterior",IF(D388="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q388" s="5">
@@ -20054,7 +20054,7 @@
         <v>11</v>
       </c>
       <c r="P452" s="7" t="str">
-        <f t="shared" ref="P452:P515" si="40">IF(D452="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D452="otros","taxi",IF(D452="restaurantes","Alimentacion",IF(D452="hoteles","hospedaje",IF(D452="supermercados","Alimentacion",IF(D452="agencia de viajes","viajes exterior",IF(D452="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P452:P515" si="40">IF(D452="ropa, zapateria y hogar","COMPRAS MENORES",IF(D452="otros","taxi",IF(D452="restaurantes","Alimentacion",IF(D452="hoteles","hospedaje",IF(D452="supermercados","Alimentacion",IF(D452="agencia de viajes","viajes exterior",IF(D452="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q452" s="5">
@@ -21654,7 +21654,7 @@
         <v>11</v>
       </c>
       <c r="P516" s="7" t="str">
-        <f t="shared" ref="P516:P579" si="45">IF(D516="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D516="otros","taxi",IF(D516="restaurantes","Alimentacion",IF(D516="hoteles","hospedaje",IF(D516="supermercados","Alimentacion",IF(D516="agencia de viajes","viajes exterior",IF(D516="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P516:P579" si="45">IF(D516="ropa, zapateria y hogar","COMPRAS MENORES",IF(D516="otros","taxi",IF(D516="restaurantes","Alimentacion",IF(D516="hoteles","hospedaje",IF(D516="supermercados","Alimentacion",IF(D516="agencia de viajes","viajes exterior",IF(D516="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q516" s="5">
@@ -23254,7 +23254,7 @@
         <v>11</v>
       </c>
       <c r="P580" s="7" t="str">
-        <f t="shared" ref="P580:P643" si="50">IF(D580="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D580="otros","taxi",IF(D580="restaurantes","Alimentacion",IF(D580="hoteles","hospedaje",IF(D580="supermercados","Alimentacion",IF(D580="agencia de viajes","viajes exterior",IF(D580="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P580:P643" si="50">IF(D580="ropa, zapateria y hogar","COMPRAS MENORES",IF(D580="otros","taxi",IF(D580="restaurantes","Alimentacion",IF(D580="hoteles","hospedaje",IF(D580="supermercados","Alimentacion",IF(D580="agencia de viajes","viajes exterior",IF(D580="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q580" s="5">
@@ -24854,7 +24854,7 @@
         <v>11</v>
       </c>
       <c r="P644" s="7" t="str">
-        <f t="shared" ref="P644:P707" si="55">IF(D644="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D644="otros","taxi",IF(D644="restaurantes","Alimentacion",IF(D644="hoteles","hospedaje",IF(D644="supermercados","Alimentacion",IF(D644="agencia de viajes","viajes exterior",IF(D644="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P644:P707" si="55">IF(D644="ropa, zapateria y hogar","COMPRAS MENORES",IF(D644="otros","taxi",IF(D644="restaurantes","Alimentacion",IF(D644="hoteles","hospedaje",IF(D644="supermercados","Alimentacion",IF(D644="agencia de viajes","viajes exterior",IF(D644="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q644" s="5">
@@ -26454,7 +26454,7 @@
         <v>11</v>
       </c>
       <c r="P708" s="7" t="str">
-        <f t="shared" ref="P708:P771" si="60">IF(D708="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D708="otros","taxi",IF(D708="restaurantes","Alimentacion",IF(D708="hoteles","hospedaje",IF(D708="supermercados","Alimentacion",IF(D708="agencia de viajes","viajes exterior",IF(D708="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P708:P771" si="60">IF(D708="ropa, zapateria y hogar","COMPRAS MENORES",IF(D708="otros","taxi",IF(D708="restaurantes","Alimentacion",IF(D708="hoteles","hospedaje",IF(D708="supermercados","Alimentacion",IF(D708="agencia de viajes","viajes exterior",IF(D708="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q708" s="5">
@@ -28054,7 +28054,7 @@
         <v>11</v>
       </c>
       <c r="P772" s="7" t="str">
-        <f t="shared" ref="P772:P784" si="65">IF(D772="ropa, zapateria y hogar","COMPRAS MENORES(**)",IF(D772="otros","taxi",IF(D772="restaurantes","Alimentacion",IF(D772="hoteles","hospedaje",IF(D772="supermercados","Alimentacion",IF(D772="agencia de viajes","viajes exterior",IF(D772="aerolineas","viajes exterior","incorrecto")))))))</f>
+        <f t="shared" ref="P772:P784" si="65">IF(D772="ropa, zapateria y hogar","COMPRAS MENORES",IF(D772="otros","taxi",IF(D772="restaurantes","Alimentacion",IF(D772="hoteles","hospedaje",IF(D772="supermercados","Alimentacion",IF(D772="agencia de viajes","viajes exterior",IF(D772="aerolineas","viajes exterior","incorrecto")))))))</f>
         <v>incorrecto</v>
       </c>
       <c r="Q772" s="5">
